--- a/reader.xlsx
+++ b/reader.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>جلسه</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>SPA توضیحات اولیه</t>
+  </si>
+  <si>
+    <t>قطعه بندی کد های پروژه</t>
+  </si>
+  <si>
+    <t>browser Routing  , Routing</t>
+  </si>
+  <si>
+    <t>شروع ریداکس</t>
   </si>
 </sst>
 </file>
@@ -174,8 +183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C32" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C77" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C77"/>
   <tableColumns count="3">
     <tableColumn id="1" name="جلسه" dataDxfId="2"/>
     <tableColumn id="2" name="خوانده شده" dataDxfId="1"/>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,39 +747,380 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reader.xlsx
+++ b/reader.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>جلسه</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>شروع ریداکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch , withRouter , Router params </t>
+  </si>
+  <si>
+    <t>Redirect</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>Axios</t>
   </si>
 </sst>
 </file>
@@ -459,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +774,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>7.17</v>
+        <v>7.16</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -772,29 +784,45 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">

--- a/reader.xlsx
+++ b/reader.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>جلسه</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Axios</t>
+  </si>
+  <si>
+    <t>Axios practice</t>
   </si>
 </sst>
 </file>
@@ -471,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,8 +831,12 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">

--- a/reader.xlsx
+++ b/reader.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>جلسه</t>
   </si>
@@ -123,7 +123,22 @@
     <t>Axios</t>
   </si>
   <si>
-    <t>Axios practice</t>
+    <t>Axios GET practice</t>
+  </si>
+  <si>
+    <t>Axios POST practice</t>
+  </si>
+  <si>
+    <t>Axios Intersepors ( request , response )</t>
+  </si>
+  <si>
+    <t>Axios Instance</t>
+  </si>
+  <si>
+    <t>Reducer</t>
+  </si>
+  <si>
+    <t>init Redux</t>
   </si>
 </sst>
 </file>
@@ -474,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,22 +857,34 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -874,15 +901,23 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">

--- a/reader.xlsx
+++ b/reader.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>جلسه</t>
   </si>
@@ -132,13 +132,28 @@
     <t>Axios Intersepors ( request , response )</t>
   </si>
   <si>
-    <t>Axios Instance</t>
-  </si>
-  <si>
     <t>Reducer</t>
   </si>
   <si>
     <t>init Redux</t>
+  </si>
+  <si>
+    <t>Axios Instance استفاده از چند اکسیوس در یک پروژه</t>
+  </si>
+  <si>
+    <t>Redux Actions</t>
+  </si>
+  <si>
+    <t>Redux Subcribes</t>
+  </si>
+  <si>
+    <t>Redux practice</t>
+  </si>
+  <si>
+    <t>Combine Reducers</t>
+  </si>
+  <si>
+    <t>React Redux</t>
   </si>
 </sst>
 </file>
@@ -489,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +898,7 @@
         <v>7.24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +920,7 @@
         <v>7.24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,43 +931,63 @@
         <v>7.24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">

--- a/reader.xlsx
+++ b/reader.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>جلسه</t>
   </si>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,15 +993,23 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">

--- a/reader.xlsx
+++ b/reader.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>جلسه</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>React Redux</t>
+  </si>
+  <si>
+    <t>React Redux counter parctice</t>
+  </si>
+  <si>
+    <t>React Redux Cart1 parctice</t>
+  </si>
+  <si>
+    <t>React Redux Cart2 parctice</t>
+  </si>
+  <si>
+    <t>React Redux Tools</t>
+  </si>
+  <si>
+    <t>middleware</t>
   </si>
 </sst>
 </file>
@@ -504,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,36 +1030,56 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
